--- a/DIO.xlsx
+++ b/DIO.xlsx
@@ -12540,7 +12540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12548,17 +12548,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S1472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A895" workbookViewId="0">
-      <selection activeCell="D836" sqref="D836"/>
+    <sheetView tabSelected="1" topLeftCell="A1125" workbookViewId="0">
+      <selection activeCell="D1119" sqref="D1119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="91.140625" customWidth="1"/>
     <col min="5" max="6" width="66" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
@@ -12617,7 +12618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -12633,7 +12634,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -12647,7 +12648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -12663,7 +12664,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -12677,7 +12678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -12693,7 +12694,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -12707,7 +12708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -12723,7 +12724,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -12753,7 +12754,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -12767,7 +12768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -12805,7 +12806,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -12835,7 +12836,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -12849,7 +12850,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -12865,7 +12866,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -12879,7 +12880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -12895,7 +12896,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -12909,7 +12910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -12925,7 +12926,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -12941,7 +12942,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -12957,7 +12958,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -12973,7 +12974,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -12989,7 +12990,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -13005,7 +13006,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -13019,7 +13020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -13035,7 +13036,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -13049,7 +13050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -13065,7 +13066,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -13109,7 +13110,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -13125,7 +13126,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -13153,7 +13154,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -13169,7 +13170,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -13185,7 +13186,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -13199,7 +13200,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -13213,7 +13214,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -13229,7 +13230,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -13245,7 +13246,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -13289,7 +13290,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -13305,7 +13306,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -13349,7 +13350,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -13365,7 +13366,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>165</v>
       </c>
@@ -13407,7 +13408,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -13423,7 +13424,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -13437,7 +13438,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -13451,7 +13452,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -13465,7 +13466,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>179</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -13507,7 +13508,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -13521,7 +13522,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -13535,7 +13536,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -13549,7 +13550,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -13563,7 +13564,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -13577,7 +13578,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -13605,7 +13606,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>210</v>
       </c>
@@ -13633,7 +13634,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -13649,7 +13650,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -13663,7 +13664,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -13691,7 +13692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -13705,7 +13706,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>226</v>
       </c>
@@ -13719,7 +13720,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>232</v>
       </c>
@@ -13747,7 +13748,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>234</v>
       </c>
@@ -13761,7 +13762,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>237</v>
       </c>
@@ -13775,7 +13776,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>240</v>
       </c>
@@ -13789,7 +13790,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -13803,7 +13804,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>256</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>259</v>
       </c>
@@ -13887,7 +13888,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -13901,7 +13902,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>265</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>267</v>
       </c>
@@ -13929,7 +13930,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>270</v>
       </c>
@@ -13943,7 +13944,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -13957,7 +13958,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -13971,7 +13972,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>278</v>
       </c>
@@ -13985,7 +13986,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>281</v>
       </c>
@@ -13999,7 +14000,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>284</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>287</v>
       </c>
@@ -14027,7 +14028,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>289</v>
       </c>
@@ -14043,7 +14044,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>292</v>
       </c>
@@ -14057,7 +14058,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>295</v>
       </c>
@@ -14071,7 +14072,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>298</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>301</v>
       </c>
@@ -14099,7 +14100,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>304</v>
       </c>
@@ -14113,7 +14114,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>307</v>
       </c>
@@ -14127,7 +14128,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>309</v>
       </c>
@@ -14143,7 +14144,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>312</v>
       </c>
@@ -14157,7 +14158,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>315</v>
       </c>
@@ -14171,7 +14172,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>318</v>
       </c>
@@ -14185,7 +14186,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>321</v>
       </c>
@@ -14199,7 +14200,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>324</v>
       </c>
@@ -14215,7 +14216,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>327</v>
       </c>
@@ -14229,7 +14230,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>330</v>
       </c>
@@ -14243,7 +14244,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>333</v>
       </c>
@@ -14257,7 +14258,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>335</v>
       </c>
@@ -14271,7 +14272,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>338</v>
       </c>
@@ -14285,7 +14286,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>341</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>344</v>
       </c>
@@ -14313,7 +14314,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>346</v>
       </c>
@@ -14329,7 +14330,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>349</v>
       </c>
@@ -14343,7 +14344,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>352</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>355</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>358</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>361</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>364</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>367</v>
       </c>
@@ -14429,7 +14430,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>369</v>
       </c>
@@ -14445,7 +14446,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>372</v>
       </c>
@@ -14459,7 +14460,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>375</v>
       </c>
@@ -14473,7 +14474,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>378</v>
       </c>
@@ -14489,7 +14490,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>380</v>
       </c>
@@ -14505,7 +14506,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>383</v>
       </c>
@@ -14519,7 +14520,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>386</v>
       </c>
@@ -14533,7 +14534,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>389</v>
       </c>
@@ -14547,7 +14548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>391</v>
       </c>
@@ -14563,7 +14564,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>394</v>
       </c>
@@ -14577,7 +14578,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>397</v>
       </c>
@@ -14591,7 +14592,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>400</v>
       </c>
@@ -14605,7 +14606,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>405</v>
       </c>
@@ -14635,7 +14636,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>407</v>
       </c>
@@ -14649,7 +14650,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>410</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>413</v>
       </c>
@@ -14677,7 +14678,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>416</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>419</v>
       </c>
@@ -14705,7 +14706,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>422</v>
       </c>
@@ -14719,7 +14720,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>425</v>
       </c>
@@ -14733,7 +14734,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>428</v>
       </c>
@@ -14747,7 +14748,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>431</v>
       </c>
@@ -14761,7 +14762,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>434</v>
       </c>
@@ -14777,7 +14778,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>436</v>
       </c>
@@ -14791,7 +14792,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>439</v>
       </c>
@@ -14807,7 +14808,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -14823,7 +14824,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>445</v>
       </c>
@@ -14837,7 +14838,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>448</v>
       </c>
@@ -14851,7 +14852,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>451</v>
       </c>
@@ -14865,7 +14866,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>454</v>
       </c>
@@ -14881,7 +14882,7 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>457</v>
       </c>
@@ -14895,7 +14896,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>460</v>
       </c>
@@ -14911,7 +14912,7 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>463</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>466</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>469</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>472</v>
       </c>
@@ -14967,7 +14968,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>474</v>
       </c>
@@ -14981,7 +14982,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>477</v>
       </c>
@@ -14995,7 +14996,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>480</v>
       </c>
@@ -15009,7 +15010,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>483</v>
       </c>
@@ -15023,7 +15024,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>486</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>489</v>
       </c>
@@ -15051,7 +15052,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>492</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>495</v>
       </c>
@@ -15079,7 +15080,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>498</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>501</v>
       </c>
@@ -15107,7 +15108,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>504</v>
       </c>
@@ -15121,7 +15122,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>507</v>
       </c>
@@ -15135,7 +15136,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>510</v>
       </c>
@@ -15149,7 +15150,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -15163,7 +15164,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>516</v>
       </c>
@@ -15177,7 +15178,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>519</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>522</v>
       </c>
@@ -15205,7 +15206,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>525</v>
       </c>
@@ -15219,7 +15220,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>528</v>
       </c>
@@ -15233,7 +15234,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>531</v>
       </c>
@@ -15247,7 +15248,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>534</v>
       </c>
@@ -15263,7 +15264,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>536</v>
       </c>
@@ -15279,7 +15280,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>538</v>
       </c>
@@ -15295,7 +15296,7 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>541</v>
       </c>
@@ -15311,7 +15312,7 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>544</v>
       </c>
@@ -15325,7 +15326,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>547</v>
       </c>
@@ -15339,7 +15340,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>550</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>553</v>
       </c>
@@ -15367,7 +15368,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>556</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>559</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>562</v>
       </c>
@@ -15411,7 +15412,7 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>565</v>
       </c>
@@ -15427,7 +15428,7 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>568</v>
       </c>
@@ -15441,7 +15442,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>571</v>
       </c>
@@ -15455,7 +15456,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>574</v>
       </c>
@@ -15471,7 +15472,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>576</v>
       </c>
@@ -15487,7 +15488,7 @@
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>579</v>
       </c>
@@ -15503,7 +15504,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>581</v>
       </c>
@@ -15519,7 +15520,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>583</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>586</v>
       </c>
@@ -15549,7 +15550,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>588</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>591</v>
       </c>
@@ -15579,7 +15580,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>593</v>
       </c>
@@ -15595,7 +15596,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>596</v>
       </c>
@@ -15609,7 +15610,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>599</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>602</v>
       </c>
@@ -15637,7 +15638,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>605</v>
       </c>
@@ -15651,7 +15652,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>608</v>
       </c>
@@ -15665,7 +15666,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>611</v>
       </c>
@@ -15700,7 +15701,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>622</v>
       </c>
@@ -15732,7 +15733,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>625</v>
       </c>
@@ -15764,7 +15765,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>628</v>
       </c>
@@ -15780,7 +15781,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>630</v>
       </c>
@@ -15815,7 +15816,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>633</v>
       </c>
@@ -15847,7 +15848,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>635</v>
       </c>
@@ -15863,7 +15864,7 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>638</v>
       </c>
@@ -15898,7 +15899,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>641</v>
       </c>
@@ -15933,7 +15934,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>644</v>
       </c>
@@ -15968,7 +15969,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>647</v>
       </c>
@@ -16000,7 +16001,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>651</v>
       </c>
@@ -16032,7 +16033,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>654</v>
       </c>
@@ -16046,7 +16047,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>657</v>
       </c>
@@ -16060,7 +16061,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>660</v>
       </c>
@@ -16076,7 +16077,7 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>663</v>
       </c>
@@ -16108,7 +16109,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>666</v>
       </c>
@@ -16124,7 +16125,7 @@
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>668</v>
       </c>
@@ -16138,7 +16139,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>671</v>
       </c>
@@ -16152,7 +16153,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>674</v>
       </c>
@@ -16166,7 +16167,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>677</v>
       </c>
@@ -16182,7 +16183,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>680</v>
       </c>
@@ -16198,7 +16199,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>683</v>
       </c>
@@ -16212,7 +16213,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>686</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>689</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>692</v>
       </c>
@@ -16254,7 +16255,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>695</v>
       </c>
@@ -16268,7 +16269,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>698</v>
       </c>
@@ -16284,7 +16285,7 @@
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>701</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>704</v>
       </c>
@@ -16314,7 +16315,7 @@
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>707</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>710</v>
       </c>
@@ -16344,7 +16345,7 @@
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>712</v>
       </c>
@@ -16358,7 +16359,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>715</v>
       </c>
@@ -16374,7 +16375,7 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>717</v>
       </c>
@@ -16388,7 +16389,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>720</v>
       </c>
@@ -16404,7 +16405,7 @@
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>722</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>725</v>
       </c>
@@ -16432,7 +16433,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>728</v>
       </c>
@@ -16446,7 +16447,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>731</v>
       </c>
@@ -16460,7 +16461,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>734</v>
       </c>
@@ -16474,7 +16475,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>737</v>
       </c>
@@ -16488,7 +16489,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>740</v>
       </c>
@@ -16502,7 +16503,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>743</v>
       </c>
@@ -16518,7 +16519,7 @@
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>746</v>
       </c>
@@ -16532,7 +16533,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>749</v>
       </c>
@@ -16548,7 +16549,7 @@
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>752</v>
       </c>
@@ -16562,7 +16563,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>755</v>
       </c>
@@ -16578,7 +16579,7 @@
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>758</v>
       </c>
@@ -16592,7 +16593,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>761</v>
       </c>
@@ -16608,7 +16609,7 @@
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>764</v>
       </c>
@@ -16622,7 +16623,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>767</v>
       </c>
@@ -16638,7 +16639,7 @@
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>770</v>
       </c>
@@ -16652,7 +16653,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>773</v>
       </c>
@@ -16668,7 +16669,7 @@
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>776</v>
       </c>
@@ -16682,7 +16683,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>779</v>
       </c>
@@ -16698,7 +16699,7 @@
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>782</v>
       </c>
@@ -16712,7 +16713,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>785</v>
       </c>
@@ -16726,7 +16727,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>788</v>
       </c>
@@ -16740,7 +16741,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>791</v>
       </c>
@@ -16756,7 +16757,7 @@
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>794</v>
       </c>
@@ -16770,7 +16771,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>797</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>799</v>
       </c>
@@ -16798,7 +16799,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>802</v>
       </c>
@@ -16812,7 +16813,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>805</v>
       </c>
@@ -16826,7 +16827,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>808</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>810</v>
       </c>
@@ -16854,7 +16855,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>813</v>
       </c>
@@ -16870,7 +16871,7 @@
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>815</v>
       </c>
@@ -16884,7 +16885,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>818</v>
       </c>
@@ -16898,7 +16899,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>821</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>824</v>
       </c>
@@ -16928,7 +16929,7 @@
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>827</v>
       </c>
@@ -16942,7 +16943,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>830</v>
       </c>
@@ -16958,7 +16959,7 @@
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>832</v>
       </c>
@@ -16972,7 +16973,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>835</v>
       </c>
@@ -16988,7 +16989,7 @@
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>837</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>840</v>
       </c>
@@ -17018,7 +17019,7 @@
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>842</v>
       </c>
@@ -17032,7 +17033,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>845</v>
       </c>
@@ -17046,7 +17047,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>848</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>851</v>
       </c>
@@ -17074,7 +17075,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>853</v>
       </c>
@@ -17088,7 +17089,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>856</v>
       </c>
@@ -17104,7 +17105,7 @@
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>859</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>862</v>
       </c>
@@ -17132,7 +17133,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>864</v>
       </c>
@@ -17146,7 +17147,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>867</v>
       </c>
@@ -17162,7 +17163,7 @@
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>869</v>
       </c>
@@ -17176,7 +17177,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>872</v>
       </c>
@@ -17190,7 +17191,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>875</v>
       </c>
@@ -17204,7 +17205,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>878</v>
       </c>
@@ -17220,7 +17221,7 @@
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>881</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>884</v>
       </c>
@@ -17248,7 +17249,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>887</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>890</v>
       </c>
@@ -17276,7 +17277,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>893</v>
       </c>
@@ -17290,7 +17291,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>896</v>
       </c>
@@ -17304,7 +17305,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>899</v>
       </c>
@@ -17318,7 +17319,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>902</v>
       </c>
@@ -17334,7 +17335,7 @@
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>905</v>
       </c>
@@ -17348,7 +17349,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>908</v>
       </c>
@@ -17364,7 +17365,7 @@
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>911</v>
       </c>
@@ -17378,7 +17379,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>914</v>
       </c>
@@ -17394,7 +17395,7 @@
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>917</v>
       </c>
@@ -17408,7 +17409,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>920</v>
       </c>
@@ -17424,7 +17425,7 @@
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>922</v>
       </c>
@@ -17438,7 +17439,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>925</v>
       </c>
@@ -17454,7 +17455,7 @@
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>927</v>
       </c>
@@ -17468,7 +17469,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>930</v>
       </c>
@@ -17484,7 +17485,7 @@
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>932</v>
       </c>
@@ -17498,7 +17499,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>935</v>
       </c>
@@ -17514,7 +17515,7 @@
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>938</v>
       </c>
@@ -17528,7 +17529,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>941</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>944</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>947</v>
       </c>
@@ -17570,7 +17571,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>950</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>953</v>
       </c>
@@ -17600,7 +17601,7 @@
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>956</v>
       </c>
@@ -17614,7 +17615,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>959</v>
       </c>
@@ -17630,7 +17631,7 @@
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>961</v>
       </c>
@@ -17644,7 +17645,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>964</v>
       </c>
@@ -17660,7 +17661,7 @@
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>966</v>
       </c>
@@ -17674,7 +17675,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>969</v>
       </c>
@@ -17690,7 +17691,7 @@
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>972</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>975</v>
       </c>
@@ -17718,7 +17719,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>978</v>
       </c>
@@ -17732,7 +17733,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>981</v>
       </c>
@@ -17746,7 +17747,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>984</v>
       </c>
@@ -17760,7 +17761,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>987</v>
       </c>
@@ -17774,7 +17775,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>989</v>
       </c>
@@ -17788,7 +17789,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>992</v>
       </c>
@@ -17804,7 +17805,7 @@
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>994</v>
       </c>
@@ -17818,7 +17819,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>997</v>
       </c>
@@ -17832,7 +17833,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>999</v>
       </c>
@@ -17846,7 +17847,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1002</v>
       </c>
@@ -17860,7 +17861,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1005</v>
       </c>
@@ -17874,7 +17875,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1008</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1010</v>
       </c>
@@ -17902,7 +17903,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1013</v>
       </c>
@@ -17918,7 +17919,7 @@
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1016</v>
       </c>
@@ -17932,7 +17933,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1019</v>
       </c>
@@ -17948,7 +17949,7 @@
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1021</v>
       </c>
@@ -17962,7 +17963,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1024</v>
       </c>
@@ -17976,7 +17977,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1027</v>
       </c>
@@ -17990,7 +17991,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1030</v>
       </c>
@@ -18006,7 +18007,7 @@
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1033</v>
       </c>
@@ -18020,7 +18021,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1036</v>
       </c>
@@ -18036,7 +18037,7 @@
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1038</v>
       </c>
@@ -18050,7 +18051,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1041</v>
       </c>
@@ -18064,7 +18065,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1043</v>
       </c>
@@ -18078,7 +18079,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1046</v>
       </c>
@@ -18094,7 +18095,7 @@
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1048</v>
       </c>
@@ -18108,7 +18109,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1051</v>
       </c>
@@ -18124,7 +18125,7 @@
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1053</v>
       </c>
@@ -18138,7 +18139,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1056</v>
       </c>
@@ -18154,7 +18155,7 @@
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1059</v>
       </c>
@@ -18168,7 +18169,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1062</v>
       </c>
@@ -18184,7 +18185,7 @@
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1065</v>
       </c>
@@ -18198,7 +18199,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1068</v>
       </c>
@@ -18212,7 +18213,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1070</v>
       </c>
@@ -18226,7 +18227,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1073</v>
       </c>
@@ -18242,7 +18243,7 @@
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1076</v>
       </c>
@@ -18256,7 +18257,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1079</v>
       </c>
@@ -18272,7 +18273,7 @@
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1081</v>
       </c>
@@ -18286,7 +18287,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1084</v>
       </c>
@@ -18302,7 +18303,7 @@
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1086</v>
       </c>
@@ -18316,7 +18317,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1089</v>
       </c>
@@ -18332,7 +18333,7 @@
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1091</v>
       </c>
@@ -18346,7 +18347,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1094</v>
       </c>
@@ -18360,7 +18361,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1096</v>
       </c>
@@ -18374,7 +18375,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1099</v>
       </c>
@@ -18388,7 +18389,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1102</v>
       </c>
@@ -18402,7 +18403,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1105</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1107</v>
       </c>
@@ -18430,7 +18431,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1110</v>
       </c>
@@ -18446,7 +18447,7 @@
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1112</v>
       </c>
@@ -18460,7 +18461,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1115</v>
       </c>
@@ -18474,7 +18475,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1117</v>
       </c>
@@ -18488,7 +18489,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1120</v>
       </c>
@@ -18504,7 +18505,7 @@
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1122</v>
       </c>
@@ -18518,7 +18519,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1125</v>
       </c>
@@ -18532,7 +18533,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1128</v>
       </c>
@@ -18546,7 +18547,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1131</v>
       </c>
@@ -18560,7 +18561,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1134</v>
       </c>
@@ -18574,7 +18575,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1137</v>
       </c>
@@ -18590,7 +18591,7 @@
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1140</v>
       </c>
@@ -18604,7 +18605,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1143</v>
       </c>
@@ -18618,7 +18619,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1146</v>
       </c>
@@ -18632,7 +18633,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1149</v>
       </c>
@@ -18646,7 +18647,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1151</v>
       </c>
@@ -18660,7 +18661,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1154</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1156</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1159</v>
       </c>
@@ -18702,7 +18703,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1161</v>
       </c>
@@ -18716,7 +18717,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1164</v>
       </c>
@@ -18730,7 +18731,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1166</v>
       </c>
@@ -18744,7 +18745,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1169</v>
       </c>
@@ -18758,7 +18759,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1171</v>
       </c>
@@ -18772,7 +18773,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1174</v>
       </c>
@@ -18786,7 +18787,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1176</v>
       </c>
@@ -18800,7 +18801,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1179</v>
       </c>
@@ -18814,7 +18815,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1181</v>
       </c>
@@ -18828,7 +18829,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1184</v>
       </c>
@@ -18842,7 +18843,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1186</v>
       </c>
@@ -18856,7 +18857,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1189</v>
       </c>
@@ -18870,7 +18871,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1191</v>
       </c>
@@ -18884,7 +18885,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1194</v>
       </c>
@@ -18898,7 +18899,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1196</v>
       </c>
@@ -18912,7 +18913,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1199</v>
       </c>
@@ -18928,7 +18929,7 @@
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1202</v>
       </c>
@@ -18942,7 +18943,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1205</v>
       </c>
@@ -18958,7 +18959,7 @@
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1208</v>
       </c>
@@ -18972,7 +18973,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1211</v>
       </c>
@@ -18986,7 +18987,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1213</v>
       </c>
@@ -19000,7 +19001,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1216</v>
       </c>
@@ -19014,7 +19015,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1219</v>
       </c>
@@ -19028,7 +19029,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1222</v>
       </c>
@@ -19044,7 +19045,7 @@
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1225</v>
       </c>
@@ -19058,7 +19059,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1228</v>
       </c>
@@ -19074,7 +19075,7 @@
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1230</v>
       </c>
@@ -19088,7 +19089,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1233</v>
       </c>
@@ -19104,7 +19105,7 @@
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1236</v>
       </c>
@@ -19118,7 +19119,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1239</v>
       </c>
@@ -19132,7 +19133,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1242</v>
       </c>
@@ -19146,7 +19147,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1245</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1247</v>
       </c>
@@ -19174,7 +19175,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1250</v>
       </c>
@@ -19188,7 +19189,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1252</v>
       </c>
@@ -19202,7 +19203,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1255</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1257</v>
       </c>
@@ -19230,7 +19231,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1260</v>
       </c>
@@ -19244,7 +19245,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1263</v>
       </c>
@@ -19258,7 +19259,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1266</v>
       </c>
@@ -19272,7 +19273,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1268</v>
       </c>
@@ -19286,7 +19287,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1271</v>
       </c>
@@ -19302,7 +19303,7 @@
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1273</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1276</v>
       </c>
@@ -19330,7 +19331,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1278</v>
       </c>
@@ -19344,7 +19345,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1281</v>
       </c>
@@ -19358,7 +19359,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1284</v>
       </c>
@@ -19372,7 +19373,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1287</v>
       </c>
@@ -19388,7 +19389,7 @@
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1290</v>
       </c>
@@ -19402,7 +19403,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1293</v>
       </c>
@@ -19418,7 +19419,7 @@
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1296</v>
       </c>
@@ -19432,7 +19433,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1299</v>
       </c>
@@ -19446,7 +19447,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1302</v>
       </c>
@@ -19460,7 +19461,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1305</v>
       </c>
@@ -19476,7 +19477,7 @@
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1308</v>
       </c>
@@ -19490,7 +19491,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1311</v>
       </c>
@@ -19504,7 +19505,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1313</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1316</v>
       </c>
@@ -19534,7 +19535,7 @@
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1318</v>
       </c>
@@ -19548,7 +19549,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1321</v>
       </c>
@@ -19564,7 +19565,7 @@
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1324</v>
       </c>
@@ -19578,7 +19579,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1327</v>
       </c>
@@ -19594,7 +19595,7 @@
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1329</v>
       </c>
@@ -19608,7 +19609,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1332</v>
       </c>
@@ -19624,7 +19625,7 @@
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1335</v>
       </c>
@@ -19638,7 +19639,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1338</v>
       </c>
@@ -19654,7 +19655,7 @@
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1341</v>
       </c>
@@ -19668,7 +19669,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1344</v>
       </c>
@@ -19684,7 +19685,7 @@
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1346</v>
       </c>
@@ -19698,7 +19699,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1349</v>
       </c>
@@ -19714,7 +19715,7 @@
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1351</v>
       </c>
@@ -19728,7 +19729,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1354</v>
       </c>
@@ -19744,7 +19745,7 @@
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1356</v>
       </c>
@@ -19758,7 +19759,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1359</v>
       </c>
@@ -19774,7 +19775,7 @@
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1362</v>
       </c>
@@ -19788,7 +19789,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1365</v>
       </c>
@@ -19804,7 +19805,7 @@
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1367</v>
       </c>
@@ -19818,7 +19819,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1370</v>
       </c>
@@ -19834,7 +19835,7 @@
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1372</v>
       </c>
@@ -19848,7 +19849,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1375</v>
       </c>
@@ -19864,7 +19865,7 @@
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1377</v>
       </c>
@@ -19878,7 +19879,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1380</v>
       </c>
@@ -19892,7 +19893,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1382</v>
       </c>
@@ -19906,7 +19907,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1385</v>
       </c>
@@ -19920,7 +19921,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1387</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1390</v>
       </c>
@@ -19950,7 +19951,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1392</v>
       </c>
@@ -19966,7 +19967,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1394</v>
       </c>
@@ -19980,7 +19981,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1397</v>
       </c>
@@ -19996,7 +19997,7 @@
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1400</v>
       </c>
@@ -20010,7 +20011,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1403</v>
       </c>
@@ -20024,7 +20025,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1406</v>
       </c>
@@ -20038,7 +20039,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1409</v>
       </c>
@@ -20052,7 +20053,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1412</v>
       </c>
@@ -20066,7 +20067,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1415</v>
       </c>
@@ -20082,7 +20083,7 @@
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1418</v>
       </c>
@@ -20096,7 +20097,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1421</v>
       </c>
@@ -20110,7 +20111,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1423</v>
       </c>
@@ -20124,7 +20125,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1426</v>
       </c>
@@ -20140,7 +20141,7 @@
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1429</v>
       </c>
@@ -20154,7 +20155,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1432</v>
       </c>
@@ -20170,7 +20171,7 @@
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1435</v>
       </c>
@@ -20184,7 +20185,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1438</v>
       </c>
@@ -20200,7 +20201,7 @@
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1440</v>
       </c>
@@ -20214,7 +20215,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1443</v>
       </c>
@@ -20230,7 +20231,7 @@
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1446</v>
       </c>
@@ -20244,7 +20245,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1449</v>
       </c>
@@ -20260,7 +20261,7 @@
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1451</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1454</v>
       </c>
@@ -20290,7 +20291,7 @@
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1456</v>
       </c>
@@ -20304,7 +20305,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1459</v>
       </c>
@@ -20320,7 +20321,7 @@
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1461</v>
       </c>
@@ -20334,7 +20335,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1464</v>
       </c>
@@ -20348,7 +20349,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1466</v>
       </c>
@@ -20362,7 +20363,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1469</v>
       </c>
@@ -20378,7 +20379,7 @@
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1472</v>
       </c>
@@ -20392,7 +20393,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1475</v>
       </c>
@@ -20406,7 +20407,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1477</v>
       </c>
@@ -20420,7 +20421,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1480</v>
       </c>
@@ -20436,7 +20437,7 @@
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1483</v>
       </c>
@@ -20450,7 +20451,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1486</v>
       </c>
@@ -20464,7 +20465,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1489</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1492</v>
       </c>
@@ -20494,7 +20495,7 @@
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1494</v>
       </c>
@@ -20508,7 +20509,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1497</v>
       </c>
@@ -20524,7 +20525,7 @@
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1499</v>
       </c>
@@ -20538,7 +20539,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1502</v>
       </c>
@@ -20554,7 +20555,7 @@
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1504</v>
       </c>
@@ -20568,7 +20569,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1507</v>
       </c>
@@ -20582,7 +20583,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1510</v>
       </c>
@@ -20596,7 +20597,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1513</v>
       </c>
@@ -20610,7 +20611,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1515</v>
       </c>
@@ -20624,7 +20625,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1518</v>
       </c>
@@ -20638,7 +20639,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1520</v>
       </c>
@@ -20652,7 +20653,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1523</v>
       </c>
@@ -20666,7 +20667,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1525</v>
       </c>
@@ -20680,7 +20681,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1528</v>
       </c>
@@ -20696,7 +20697,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1530</v>
       </c>
@@ -20712,7 +20713,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1532</v>
       </c>
@@ -20726,7 +20727,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1535</v>
       </c>
@@ -20740,7 +20741,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1538</v>
       </c>
@@ -20754,7 +20755,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1541</v>
       </c>
@@ -20768,7 +20769,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>1544</v>
       </c>
@@ -20782,7 +20783,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>1547</v>
       </c>
@@ -20796,7 +20797,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>1550</v>
       </c>
@@ -20810,7 +20811,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>1553</v>
       </c>
@@ -20824,7 +20825,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>1556</v>
       </c>
@@ -20838,7 +20839,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>1559</v>
       </c>
@@ -20852,7 +20853,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>1562</v>
       </c>
@@ -20866,7 +20867,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>1565</v>
       </c>
@@ -20880,7 +20881,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>1568</v>
       </c>
@@ -20894,7 +20895,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1571</v>
       </c>
@@ -20908,7 +20909,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>1574</v>
       </c>
@@ -20922,7 +20923,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>1577</v>
       </c>
@@ -20938,7 +20939,7 @@
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1580</v>
       </c>
@@ -20952,7 +20953,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1583</v>
       </c>
@@ -20966,7 +20967,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1586</v>
       </c>
@@ -20982,7 +20983,7 @@
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>1588</v>
       </c>
@@ -20998,7 +20999,7 @@
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1590</v>
       </c>
@@ -21014,7 +21015,7 @@
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1593</v>
       </c>
@@ -21028,7 +21029,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1596</v>
       </c>
@@ -21044,7 +21045,7 @@
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1599</v>
       </c>
@@ -21058,7 +21059,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1602</v>
       </c>
@@ -21090,7 +21091,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1606</v>
       </c>
@@ -21122,7 +21123,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1609</v>
       </c>
@@ -21154,7 +21155,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1612</v>
       </c>
@@ -21240,7 +21241,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1622</v>
       </c>
@@ -21307,7 +21308,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1628</v>
       </c>
@@ -21377,7 +21378,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1634</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1637</v>
       </c>
@@ -21428,7 +21429,7 @@
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1640</v>
       </c>
@@ -21460,7 +21461,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1643</v>
       </c>
@@ -21471,7 +21472,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1645</v>
       </c>
@@ -21487,7 +21488,7 @@
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>1648</v>
       </c>
@@ -21501,7 +21502,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1651</v>
       </c>
@@ -21515,7 +21516,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1654</v>
       </c>
@@ -21529,7 +21530,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1657</v>
       </c>
@@ -21580,7 +21581,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1664</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1667</v>
       </c>
@@ -21629,7 +21630,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1670</v>
       </c>
@@ -21664,7 +21665,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1673</v>
       </c>
@@ -21680,7 +21681,7 @@
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1676</v>
       </c>
@@ -21696,7 +21697,7 @@
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1678</v>
       </c>
@@ -21710,7 +21711,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>1681</v>
       </c>
@@ -21726,7 +21727,7 @@
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1683</v>
       </c>
@@ -21758,7 +21759,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1686</v>
       </c>
@@ -21772,7 +21773,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1689</v>
       </c>
@@ -21786,7 +21787,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>1692</v>
       </c>
@@ -21800,7 +21801,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>1695</v>
       </c>
@@ -21814,7 +21815,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>1698</v>
       </c>
@@ -21828,7 +21829,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1701</v>
       </c>
@@ -21842,7 +21843,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>1704</v>
       </c>
@@ -21858,7 +21859,7 @@
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1706</v>
       </c>
@@ -21874,7 +21875,7 @@
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>1708</v>
       </c>
@@ -21888,7 +21889,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>1711</v>
       </c>
@@ -21904,7 +21905,7 @@
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>1713</v>
       </c>
@@ -21939,7 +21940,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1716</v>
       </c>
@@ -21955,7 +21956,7 @@
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1718</v>
       </c>
@@ -21971,7 +21972,7 @@
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1720</v>
       </c>
@@ -21985,7 +21986,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>1723</v>
       </c>
@@ -22001,7 +22002,7 @@
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>1725</v>
       </c>
@@ -22033,7 +22034,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>1728</v>
       </c>
@@ -22049,7 +22050,7 @@
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1730</v>
       </c>
@@ -22065,7 +22066,7 @@
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>1732</v>
       </c>
@@ -22079,7 +22080,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>1735</v>
       </c>
@@ -22235,7 +22236,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>1749</v>
       </c>
@@ -22292,7 +22293,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>1756</v>
       </c>
@@ -22362,7 +22363,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>1767</v>
       </c>
@@ -22409,7 +22410,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>1773</v>
       </c>
@@ -22425,7 +22426,7 @@
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>1775</v>
       </c>
@@ -22441,7 +22442,7 @@
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>1777</v>
       </c>
@@ -22455,7 +22456,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>1780</v>
       </c>
@@ -22550,7 +22551,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>1788</v>
       </c>
@@ -22603,7 +22604,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>1794</v>
       </c>
@@ -22656,7 +22657,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>1800</v>
       </c>
@@ -22706,7 +22707,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>1806</v>
       </c>
@@ -22792,7 +22793,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>1815</v>
       </c>
@@ -22903,7 +22904,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>1828</v>
       </c>
@@ -22919,7 +22920,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1831</v>
       </c>
@@ -22935,7 +22936,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
     </row>
-    <row r="648" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>1834</v>
       </c>
@@ -22951,7 +22952,7 @@
       <c r="E648" s="5"/>
       <c r="F648" s="5"/>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>1837</v>
       </c>
@@ -22967,7 +22968,7 @@
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>1840</v>
       </c>
@@ -22981,7 +22982,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>1843</v>
       </c>
@@ -22995,7 +22996,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1846</v>
       </c>
@@ -23009,7 +23010,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1849</v>
       </c>
@@ -23025,7 +23026,7 @@
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>1852</v>
       </c>
@@ -23039,7 +23040,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>1854</v>
       </c>
@@ -23053,7 +23054,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>1857</v>
       </c>
@@ -23067,7 +23068,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>1860</v>
       </c>
@@ -23083,7 +23084,7 @@
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>1863</v>
       </c>
@@ -23097,7 +23098,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>1865</v>
       </c>
@@ -23111,7 +23112,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>1868</v>
       </c>
@@ -23125,7 +23126,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>1871</v>
       </c>
@@ -23141,7 +23142,7 @@
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>1874</v>
       </c>
@@ -23155,7 +23156,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>1876</v>
       </c>
@@ -23169,7 +23170,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>1879</v>
       </c>
@@ -23183,7 +23184,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>1882</v>
       </c>
@@ -23199,7 +23200,7 @@
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>1885</v>
       </c>
@@ -23213,7 +23214,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>1887</v>
       </c>
@@ -23227,7 +23228,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1890</v>
       </c>
@@ -23241,7 +23242,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>1893</v>
       </c>
@@ -23257,7 +23258,7 @@
       <c r="E669" s="1"/>
       <c r="F669" s="1"/>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>1896</v>
       </c>
@@ -23271,7 +23272,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>1899</v>
       </c>
@@ -23285,7 +23286,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>1902</v>
       </c>
@@ -23301,7 +23302,7 @@
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>1904</v>
       </c>
@@ -23404,7 +23405,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>1916</v>
       </c>
@@ -23490,7 +23491,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>1924</v>
       </c>
@@ -23525,7 +23526,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>1927</v>
       </c>
@@ -23541,7 +23542,7 @@
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>1929</v>
       </c>
@@ -23590,7 +23591,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>1935</v>
       </c>
@@ -23625,7 +23626,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>1938</v>
       </c>
@@ -23660,7 +23661,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>1941</v>
       </c>
@@ -23695,7 +23696,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>1944</v>
       </c>
@@ -23711,7 +23712,7 @@
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>1946</v>
       </c>
@@ -23727,7 +23728,7 @@
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>1948</v>
       </c>
@@ -23741,7 +23742,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>1951</v>
       </c>
@@ -23804,7 +23805,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>1957</v>
       </c>
@@ -23846,7 +23847,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>1963</v>
       </c>
@@ -23883,7 +23884,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>1968</v>
       </c>
@@ -23923,7 +23924,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>1974</v>
       </c>
@@ -23960,7 +23961,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>1979</v>
       </c>
@@ -23974,7 +23975,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>1982</v>
       </c>
@@ -23990,7 +23991,7 @@
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>1984</v>
       </c>
@@ -24025,7 +24026,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>1987</v>
       </c>
@@ -24041,7 +24042,7 @@
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>1990</v>
       </c>
@@ -24104,7 +24105,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>1996</v>
       </c>
@@ -24146,7 +24147,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>2002</v>
       </c>
@@ -24188,7 +24189,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>2008</v>
       </c>
@@ -24202,7 +24203,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>2011</v>
       </c>
@@ -24244,7 +24245,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>2016</v>
       </c>
@@ -24258,7 +24259,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>2019</v>
       </c>
@@ -24293,7 +24294,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>2022</v>
       </c>
@@ -24328,7 +24329,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>2025</v>
       </c>
@@ -24363,7 +24364,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>2029</v>
       </c>
@@ -24377,7 +24378,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>2032</v>
       </c>
@@ -24393,7 +24394,7 @@
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>2035</v>
       </c>
@@ -24456,7 +24457,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>2040</v>
       </c>
@@ -24498,7 +24499,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>2045</v>
       </c>
@@ -24540,7 +24541,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>2049</v>
       </c>
@@ -24554,7 +24555,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>2052</v>
       </c>
@@ -24596,7 +24597,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>2057</v>
       </c>
@@ -24610,7 +24611,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>2060</v>
       </c>
@@ -24645,7 +24646,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>2063</v>
       </c>
@@ -24680,7 +24681,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>2066</v>
       </c>
@@ -24715,7 +24716,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>2069</v>
       </c>
@@ -24729,7 +24730,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>2072</v>
       </c>
@@ -24745,7 +24746,7 @@
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>2075</v>
       </c>
@@ -24805,7 +24806,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>2080</v>
       </c>
@@ -24819,7 +24820,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>2083</v>
       </c>
@@ -24835,7 +24836,7 @@
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>2085</v>
       </c>
@@ -24849,7 +24850,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>2088</v>
       </c>
@@ -24865,7 +24866,7 @@
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>2091</v>
       </c>
@@ -24879,7 +24880,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>2094</v>
       </c>
@@ -24893,7 +24894,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>2097</v>
       </c>
@@ -24907,7 +24908,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>2100</v>
       </c>
@@ -24918,7 +24919,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>2102</v>
       </c>
@@ -24932,7 +24933,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>2105</v>
       </c>
@@ -24946,7 +24947,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>2108</v>
       </c>
@@ -24960,7 +24961,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>2111</v>
       </c>
@@ -24971,7 +24972,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>2113</v>
       </c>
@@ -24985,7 +24986,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>2115</v>
       </c>
@@ -24999,7 +25000,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>2118</v>
       </c>
@@ -25013,7 +25014,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>2121</v>
       </c>
@@ -25029,7 +25030,7 @@
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>2123</v>
       </c>
@@ -25043,7 +25044,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>2126</v>
       </c>
@@ -25075,7 +25076,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>2129</v>
       </c>
@@ -25107,7 +25108,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>2132</v>
       </c>
@@ -25121,7 +25122,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>2135</v>
       </c>
@@ -25137,7 +25138,7 @@
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>2138</v>
       </c>
@@ -25200,7 +25201,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>2143</v>
       </c>
@@ -25242,7 +25243,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>2148</v>
       </c>
@@ -25284,7 +25285,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>2152</v>
       </c>
@@ -25298,7 +25299,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>2155</v>
       </c>
@@ -25312,7 +25313,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>2158</v>
       </c>
@@ -25349,7 +25350,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>2163</v>
       </c>
@@ -25363,7 +25364,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>2166</v>
       </c>
@@ -25377,7 +25378,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>2169</v>
       </c>
@@ -25419,7 +25420,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>2174</v>
       </c>
@@ -25433,7 +25434,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>2177</v>
       </c>
@@ -25468,7 +25469,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>2180</v>
       </c>
@@ -25484,7 +25485,7 @@
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>2183</v>
       </c>
@@ -25547,7 +25548,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>2188</v>
       </c>
@@ -25589,7 +25590,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>2193</v>
       </c>
@@ -25631,7 +25632,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>2197</v>
       </c>
@@ -25645,7 +25646,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>2200</v>
       </c>
@@ -25687,7 +25688,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>2205</v>
       </c>
@@ -25701,7 +25702,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>2208</v>
       </c>
@@ -25736,7 +25737,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>2211</v>
       </c>
@@ -25750,7 +25751,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>2214</v>
       </c>
@@ -25766,7 +25767,7 @@
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>2217</v>
       </c>
@@ -25829,7 +25830,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>2222</v>
       </c>
@@ -25871,7 +25872,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>2227</v>
       </c>
@@ -25913,7 +25914,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>2231</v>
       </c>
@@ -25927,7 +25928,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>2234</v>
       </c>
@@ -25938,7 +25939,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>2236</v>
       </c>
@@ -25977,7 +25978,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>2240</v>
       </c>
@@ -25991,7 +25992,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>2243</v>
       </c>
@@ -26026,7 +26027,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>2246</v>
       </c>
@@ -26042,7 +26043,7 @@
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>2248</v>
       </c>
@@ -26056,7 +26057,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>2251</v>
       </c>
@@ -26137,7 +26138,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>2260</v>
       </c>
@@ -26179,7 +26180,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="806" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:19" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>2266</v>
       </c>
@@ -26223,7 +26224,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>2272</v>
       </c>
@@ -26265,7 +26266,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>2277</v>
       </c>
@@ -26307,7 +26308,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>2283</v>
       </c>
@@ -26349,7 +26350,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="814" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>2289</v>
       </c>
@@ -26363,7 +26364,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="815" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>2292</v>
       </c>
@@ -26405,7 +26406,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="817" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>2298</v>
       </c>
@@ -26447,7 +26448,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="819" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>2304</v>
       </c>
@@ -26489,7 +26490,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="821" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>2309</v>
       </c>
@@ -26503,7 +26504,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="822" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>2311</v>
       </c>
@@ -26547,7 +26548,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="824" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>2316</v>
       </c>
@@ -26633,7 +26634,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="827" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>2325</v>
       </c>
@@ -26647,7 +26648,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="828" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>2328</v>
       </c>
@@ -26728,7 +26729,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="831" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>2336</v>
       </c>
@@ -26770,7 +26771,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="833" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>2341</v>
       </c>
@@ -26814,7 +26815,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>2346</v>
       </c>
@@ -26856,7 +26857,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>2350</v>
       </c>
@@ -26898,7 +26899,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>2354</v>
       </c>
@@ -26940,7 +26941,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>2358</v>
       </c>
@@ -26954,7 +26955,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>2360</v>
       </c>
@@ -26991,7 +26992,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>2364</v>
       </c>
@@ -27005,7 +27006,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>2367</v>
       </c>
@@ -27047,7 +27048,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>2372</v>
       </c>
@@ -27089,7 +27090,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="849" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>2376</v>
       </c>
@@ -27131,7 +27132,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="851" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>2380</v>
       </c>
@@ -27173,7 +27174,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="853" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>2384</v>
       </c>
@@ -27292,7 +27293,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="857" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>2396</v>
       </c>
@@ -27306,7 +27307,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="858" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>2399</v>
       </c>
@@ -27387,7 +27388,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="861" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>2408</v>
       </c>
@@ -27429,7 +27430,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="863" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:19" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>2413</v>
       </c>
@@ -27473,7 +27474,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="865" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>2418</v>
       </c>
@@ -27515,7 +27516,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="867" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>2423</v>
       </c>
@@ -27557,7 +27558,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="869" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>2427</v>
       </c>
@@ -27599,7 +27600,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="871" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>2431</v>
       </c>
@@ -27613,7 +27614,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="872" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>2434</v>
       </c>
@@ -27655,7 +27656,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="874" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>2439</v>
       </c>
@@ -27697,7 +27698,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="876" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>2443</v>
       </c>
@@ -27739,7 +27740,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="878" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>2447</v>
       </c>
@@ -27753,7 +27754,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="879" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>2449</v>
       </c>
@@ -27795,7 +27796,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="881" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>2454</v>
       </c>
@@ -27881,7 +27882,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="884" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>2463</v>
       </c>
@@ -27895,7 +27896,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="885" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>2466</v>
       </c>
@@ -27909,7 +27910,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="886" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>2469</v>
       </c>
@@ -27987,7 +27988,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="889" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>2477</v>
       </c>
@@ -28029,7 +28030,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="891" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>2482</v>
       </c>
@@ -28073,7 +28074,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="893" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>2487</v>
       </c>
@@ -28115,7 +28116,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="895" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>2492</v>
       </c>
@@ -28157,7 +28158,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="897" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>2496</v>
       </c>
@@ -28199,7 +28200,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="899" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>2500</v>
       </c>
@@ -28213,7 +28214,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="900" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>2502</v>
       </c>
@@ -28250,7 +28251,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="902" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>2506</v>
       </c>
@@ -28264,7 +28265,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="903" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>2508</v>
       </c>
@@ -28306,7 +28307,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="905" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>2512</v>
       </c>
@@ -28348,7 +28349,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="907" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>2516</v>
       </c>
@@ -28390,7 +28391,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="909" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>2520</v>
       </c>
@@ -28432,7 +28433,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="911" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>2524</v>
       </c>
@@ -28550,7 +28551,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="916" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>2539</v>
       </c>
@@ -28564,7 +28565,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="917" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>2542</v>
       </c>
@@ -28642,7 +28643,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="920" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>2550</v>
       </c>
@@ -28684,7 +28685,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="922" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:19" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>2555</v>
       </c>
@@ -28728,7 +28729,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="924" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>2560</v>
       </c>
@@ -28770,7 +28771,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="926" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>2565</v>
       </c>
@@ -28812,7 +28813,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="928" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>2569</v>
       </c>
@@ -28854,7 +28855,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="930" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>2573</v>
       </c>
@@ -28868,7 +28869,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="931" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>2576</v>
       </c>
@@ -28910,7 +28911,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="933" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>2581</v>
       </c>
@@ -28952,7 +28953,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="935" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>2585</v>
       </c>
@@ -28994,7 +28995,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="937" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>2589</v>
       </c>
@@ -29008,7 +29009,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="938" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>2591</v>
       </c>
@@ -29050,7 +29051,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="940" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>2596</v>
       </c>
@@ -29142,7 +29143,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="944" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>2608</v>
       </c>
@@ -29156,7 +29157,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="945" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>2611</v>
       </c>
@@ -29234,7 +29235,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="948" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>2619</v>
       </c>
@@ -29276,7 +29277,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="950" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>2624</v>
       </c>
@@ -29320,7 +29321,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="952" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>2629</v>
       </c>
@@ -29362,7 +29363,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="954" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>2634</v>
       </c>
@@ -29404,7 +29405,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="956" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>2638</v>
       </c>
@@ -29446,7 +29447,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="958" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>2642</v>
       </c>
@@ -29460,7 +29461,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="959" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>2644</v>
       </c>
@@ -29497,7 +29498,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="961" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>2648</v>
       </c>
@@ -29511,7 +29512,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="962" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>2650</v>
       </c>
@@ -29553,7 +29554,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="964" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>2654</v>
       </c>
@@ -29595,7 +29596,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="966" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>2658</v>
       </c>
@@ -29637,7 +29638,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="968" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>2662</v>
       </c>
@@ -29679,7 +29680,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="970" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>2666</v>
       </c>
@@ -29797,7 +29798,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="975" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>2681</v>
       </c>
@@ -29811,7 +29812,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="976" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>2684</v>
       </c>
@@ -29827,7 +29828,7 @@
       <c r="E976" s="2"/>
       <c r="F976" s="2"/>
     </row>
-    <row r="977" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>2687</v>
       </c>
@@ -29906,7 +29907,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="980" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>2696</v>
       </c>
@@ -29948,7 +29949,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="982" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:19" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>2701</v>
       </c>
@@ -29992,7 +29993,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="984" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>2706</v>
       </c>
@@ -30034,7 +30035,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="986" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>2711</v>
       </c>
@@ -30076,7 +30077,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="988" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>2715</v>
       </c>
@@ -30118,7 +30119,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="990" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>2720</v>
       </c>
@@ -30160,7 +30161,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="992" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>2724</v>
       </c>
@@ -30202,7 +30203,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="994" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>2728</v>
       </c>
@@ -30216,7 +30217,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="995" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>2731</v>
       </c>
@@ -30258,7 +30259,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="997" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>2736</v>
       </c>
@@ -30300,7 +30301,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="999" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>2740</v>
       </c>
@@ -30351,7 +30352,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1001" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>2746</v>
       </c>
@@ -30365,7 +30366,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1002" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>2749</v>
       </c>
@@ -30379,7 +30380,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="1003" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>2752</v>
       </c>
@@ -30393,7 +30394,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="1004" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>2755</v>
       </c>
@@ -30495,7 +30496,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1007" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>2766</v>
       </c>
@@ -30509,7 +30510,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="1008" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>2769</v>
       </c>
@@ -30590,7 +30591,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1011" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>2778</v>
       </c>
@@ -30632,7 +30633,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1013" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:19" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>2783</v>
       </c>
@@ -30676,7 +30677,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1015" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>2788</v>
       </c>
@@ -30718,7 +30719,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1017" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>2792</v>
       </c>
@@ -30760,7 +30761,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1019" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>2796</v>
       </c>
@@ -30802,7 +30803,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1021" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>2800</v>
       </c>
@@ -30816,7 +30817,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="1022" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>2803</v>
       </c>
@@ -30858,7 +30859,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1024" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>2808</v>
       </c>
@@ -30900,7 +30901,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1026" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>2812</v>
       </c>
@@ -30942,7 +30943,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1028" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>2816</v>
       </c>
@@ -30984,7 +30985,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1030" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>2820</v>
       </c>
@@ -31068,7 +31069,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1033" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>2829</v>
       </c>
@@ -31146,7 +31147,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1036" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>2837</v>
       </c>
@@ -31188,7 +31189,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1038" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:19" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>2842</v>
       </c>
@@ -31232,7 +31233,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1040" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>2847</v>
       </c>
@@ -31274,7 +31275,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1042" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>2852</v>
       </c>
@@ -31316,7 +31317,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1044" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>2856</v>
       </c>
@@ -31358,7 +31359,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1046" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>2860</v>
       </c>
@@ -31372,7 +31373,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="1047" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>2862</v>
       </c>
@@ -31414,7 +31415,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1049" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>2866</v>
       </c>
@@ -31456,7 +31457,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1051" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>2870</v>
       </c>
@@ -31498,7 +31499,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1053" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>2874</v>
       </c>
@@ -31512,7 +31513,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="1054" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:17" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>2876</v>
       </c>
@@ -31556,7 +31557,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1056" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>2881</v>
       </c>
@@ -31622,7 +31623,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="1059" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>2890</v>
       </c>
@@ -31662,7 +31663,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="1061" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>2896</v>
       </c>
@@ -31676,7 +31677,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="1062" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>2899</v>
       </c>
@@ -31690,7 +31691,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="1063" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>2901</v>
       </c>
@@ -31706,7 +31707,7 @@
       <c r="E1063" s="2"/>
       <c r="F1063" s="2"/>
     </row>
-    <row r="1064" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
         <v>2903</v>
       </c>
@@ -31720,7 +31721,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="1065" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
         <v>2906</v>
       </c>
@@ -31734,7 +31735,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="1066" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>2909</v>
       </c>
@@ -31750,7 +31751,7 @@
       <c r="E1066" s="2"/>
       <c r="F1066" s="2"/>
     </row>
-    <row r="1067" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>2911</v>
       </c>
@@ -31764,7 +31765,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="1068" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>2914</v>
       </c>
@@ -31778,7 +31779,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="1069" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
         <v>2917</v>
       </c>
@@ -31794,7 +31795,7 @@
       <c r="E1069" s="2"/>
       <c r="F1069" s="2"/>
     </row>
-    <row r="1070" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
         <v>2919</v>
       </c>
@@ -31808,7 +31809,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="1071" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>2922</v>
       </c>
@@ -31824,7 +31825,7 @@
       <c r="E1071" s="2"/>
       <c r="F1071" s="2"/>
     </row>
-    <row r="1072" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>2925</v>
       </c>
@@ -31838,7 +31839,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="1073" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>2927</v>
       </c>
@@ -31854,7 +31855,7 @@
       <c r="E1073" s="2"/>
       <c r="F1073" s="2"/>
     </row>
-    <row r="1074" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>2930</v>
       </c>
@@ -31931,7 +31932,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1077" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>2939</v>
       </c>
@@ -31973,7 +31974,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1079" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>2945</v>
       </c>
@@ -32013,7 +32014,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1081" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>2951</v>
       </c>
@@ -32027,7 +32028,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="1082" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>2954</v>
       </c>
@@ -32043,7 +32044,7 @@
       <c r="E1082" s="2"/>
       <c r="F1082" s="2"/>
     </row>
-    <row r="1083" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>2956</v>
       </c>
@@ -32057,7 +32058,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="1084" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>2959</v>
       </c>
@@ -32073,7 +32074,7 @@
       <c r="E1084" s="2"/>
       <c r="F1084" s="2"/>
     </row>
-    <row r="1085" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>2961</v>
       </c>
@@ -32084,7 +32085,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="1086" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>2963</v>
       </c>
@@ -32100,7 +32101,7 @@
       <c r="E1086" s="2"/>
       <c r="F1086" s="2"/>
     </row>
-    <row r="1087" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>2966</v>
       </c>
@@ -32116,7 +32117,7 @@
       <c r="E1087" s="2"/>
       <c r="F1087" s="2"/>
     </row>
-    <row r="1088" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>2967</v>
       </c>
@@ -32127,7 +32128,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="1089" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>2969</v>
       </c>
@@ -32143,7 +32144,7 @@
       <c r="E1089" s="2"/>
       <c r="F1089" s="2"/>
     </row>
-    <row r="1090" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>2972</v>
       </c>
@@ -32159,7 +32160,7 @@
       <c r="E1090" s="2"/>
       <c r="F1090" s="2"/>
     </row>
-    <row r="1091" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>2974</v>
       </c>
@@ -32170,7 +32171,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="1092" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>2976</v>
       </c>
@@ -32186,7 +32187,7 @@
       <c r="E1092" s="2"/>
       <c r="F1092" s="2"/>
     </row>
-    <row r="1093" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>2979</v>
       </c>
@@ -32202,7 +32203,7 @@
       <c r="E1093" s="2"/>
       <c r="F1093" s="2"/>
     </row>
-    <row r="1094" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>2981</v>
       </c>
@@ -32213,7 +32214,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="1095" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>2983</v>
       </c>
@@ -32229,7 +32230,7 @@
       <c r="E1095" s="2"/>
       <c r="F1095" s="2"/>
     </row>
-    <row r="1096" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
         <v>2986</v>
       </c>
@@ -32245,7 +32246,7 @@
       <c r="E1096" s="2"/>
       <c r="F1096" s="2"/>
     </row>
-    <row r="1097" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>2988</v>
       </c>
@@ -32259,7 +32260,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="1098" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>2991</v>
       </c>
@@ -32287,7 +32288,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1099" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
         <v>2993</v>
       </c>
@@ -32301,7 +32302,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="1100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>2996</v>
       </c>
@@ -32329,7 +32330,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>2999</v>
       </c>
@@ -32343,7 +32344,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="1102" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>3002</v>
       </c>
@@ -32377,7 +32378,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1103" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>3005</v>
       </c>
@@ -32411,7 +32412,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1104" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>3008</v>
       </c>
@@ -32448,7 +32449,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>3011</v>
       </c>
@@ -32483,7 +32484,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1106" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:19" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>3014</v>
       </c>
@@ -32520,7 +32521,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>3017</v>
       </c>
@@ -32667,7 +32668,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>3032</v>
       </c>
@@ -32970,7 +32971,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>3063</v>
       </c>
@@ -32984,7 +32985,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
         <v>3065</v>
       </c>
@@ -33213,7 +33214,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>3087</v>
       </c>
@@ -33948,7 +33949,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>3156</v>
       </c>
@@ -34680,7 +34681,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
         <v>3213</v>
       </c>
@@ -35415,7 +35416,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1213" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
         <v>3270</v>
       </c>
@@ -35478,7 +35479,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
         <v>3275</v>
       </c>
@@ -35492,7 +35493,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
         <v>3277</v>
       </c>
@@ -35721,7 +35722,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1224" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
         <v>3297</v>
       </c>
@@ -36531,7 +36532,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
         <v>3365</v>
       </c>
@@ -36834,7 +36835,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
         <v>3392</v>
       </c>
@@ -36848,7 +36849,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
         <v>3394</v>
       </c>
@@ -37077,7 +37078,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
         <v>3413</v>
       </c>
@@ -37890,7 +37891,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
         <v>3476</v>
       </c>
@@ -37953,7 +37954,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
         <v>3480</v>
       </c>
@@ -37988,7 +37989,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
         <v>3482</v>
       </c>
@@ -38214,7 +38215,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
         <v>3501</v>
       </c>
@@ -39114,7 +39115,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1348" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
         <v>3574</v>
       </c>
@@ -39921,7 +39922,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1378" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
         <v>3638</v>
       </c>
@@ -40728,7 +40729,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1408" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
         <v>3702</v>
       </c>
@@ -40788,7 +40789,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1410" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
         <v>3706</v>
       </c>
@@ -40802,7 +40803,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="1411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1411" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
         <v>3708</v>
       </c>
@@ -41031,7 +41032,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1419" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
         <v>3728</v>
       </c>
@@ -41293,7 +41294,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1428" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
         <v>3748</v>
       </c>
@@ -41328,7 +41329,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="1429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1429" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
         <v>3751</v>
       </c>
@@ -41342,7 +41343,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="1430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1430" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
         <v>3754</v>
       </c>
@@ -41358,7 +41359,7 @@
       <c r="E1430" s="2"/>
       <c r="F1430" s="2"/>
     </row>
-    <row r="1431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1431" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
         <v>3756</v>
       </c>
@@ -41372,7 +41373,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="1432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1432" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
         <v>3759</v>
       </c>
@@ -41386,7 +41387,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="1433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1433" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
         <v>3762</v>
       </c>
@@ -41400,7 +41401,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="1434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1434" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
         <v>3765</v>
       </c>
@@ -41414,7 +41415,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="1435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1435" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
         <v>3768</v>
       </c>
@@ -41428,7 +41429,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="1436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1436" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
         <v>3771</v>
       </c>
@@ -41444,7 +41445,7 @@
       <c r="E1436" s="2"/>
       <c r="F1436" s="2"/>
     </row>
-    <row r="1437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1437" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
         <v>3774</v>
       </c>
@@ -41460,7 +41461,7 @@
       <c r="E1437" s="2"/>
       <c r="F1437" s="2"/>
     </row>
-    <row r="1438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1438" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
         <v>3777</v>
       </c>
@@ -41474,7 +41475,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="1439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1439" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
         <v>3780</v>
       </c>
@@ -41488,7 +41489,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="1440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1440" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
         <v>3783</v>
       </c>
@@ -41502,7 +41503,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="1441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
         <v>3786</v>
       </c>
@@ -41516,7 +41517,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="1442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
         <v>3789</v>
       </c>
@@ -41530,7 +41531,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="1443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
         <v>3792</v>
       </c>
@@ -41544,7 +41545,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="1444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
         <v>3795</v>
       </c>
@@ -41560,7 +41561,7 @@
       <c r="E1444" s="2"/>
       <c r="F1444" s="2"/>
     </row>
-    <row r="1445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
         <v>3798</v>
       </c>
@@ -41574,7 +41575,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="1446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1446" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
         <v>3801</v>
       </c>
@@ -41588,7 +41589,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="1447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1447" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
         <v>3803</v>
       </c>
@@ -41602,7 +41603,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="1448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1448" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
         <v>3806</v>
       </c>
@@ -41616,7 +41617,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="1449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
         <v>3809</v>
       </c>
@@ -41630,7 +41631,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="1450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
         <v>3812</v>
       </c>
@@ -41644,7 +41645,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="1451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
         <v>3814</v>
       </c>
@@ -41660,7 +41661,7 @@
       <c r="E1451" s="2"/>
       <c r="F1451" s="2"/>
     </row>
-    <row r="1452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
         <v>3817</v>
       </c>
@@ -41674,7 +41675,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="1453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1453" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
         <v>3820</v>
       </c>
@@ -41688,7 +41689,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="1454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
         <v>3822</v>
       </c>
@@ -41702,7 +41703,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1455" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
         <v>3825</v>
       </c>
@@ -41716,7 +41717,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
         <v>3828</v>
       </c>
@@ -41730,7 +41731,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
         <v>3831</v>
       </c>
@@ -41746,7 +41747,7 @@
       <c r="E1457" s="2"/>
       <c r="F1457" s="2"/>
     </row>
-    <row r="1458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
         <v>3834</v>
       </c>
@@ -41760,7 +41761,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="1459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1459" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
         <v>3837</v>
       </c>
@@ -41774,7 +41775,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="1460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
         <v>3839</v>
       </c>
@@ -41788,7 +41789,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
         <v>3842</v>
       </c>
@@ -41802,7 +41803,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1462" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
         <v>3845</v>
       </c>
@@ -41816,7 +41817,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="1463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
         <v>3848</v>
       </c>
@@ -41830,7 +41831,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
         <v>3851</v>
       </c>
@@ -41844,7 +41845,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1465" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
         <v>3854</v>
       </c>
@@ -41858,7 +41859,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
         <v>3857</v>
       </c>
@@ -41872,7 +41873,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
         <v>3860</v>
       </c>
@@ -41886,7 +41887,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1468" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
         <v>3862</v>
       </c>
@@ -41900,7 +41901,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
         <v>3865</v>
       </c>
@@ -41914,7 +41915,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1470" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
         <v>3868</v>
       </c>
@@ -41928,7 +41929,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="1471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1471" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
         <v>3871</v>
       </c>
@@ -41942,7 +41943,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1472" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
         <v>3874</v>
       </c>
@@ -41957,7 +41958,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B1472"/>
+  <autoFilter ref="B1:B1472">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FUNC_REQ"/>
+        <filter val="INTERFACE_REQ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
